--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResultsWithSorting.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResultsWithSorting.xlsx
@@ -38,6 +38,51 @@
     <t>Result</t>
   </si>
   <si>
+    <t>Ivanova</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Ivanovna</t>
+  </si>
+  <si>
+    <t>10.11.2019</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Examen</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Sergeev</t>
+  </si>
+  <si>
+    <t>Sergey</t>
+  </si>
+  <si>
+    <t>Sergeevich</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Andreev</t>
+  </si>
+  <si>
+    <t>Andrey</t>
+  </si>
+  <si>
+    <t>Andreevich</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Ivanov</t>
   </si>
   <si>
@@ -45,15 +90,6 @@
   </si>
   <si>
     <t>Ivanovich</t>
-  </si>
-  <si>
-    <t>10.11.2019</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Examen</t>
   </si>
   <si>
     <t>8</t>
@@ -72,46 +108,10 @@
     <t>Credit</t>
   </si>
   <si>
-    <t>Andreev</t>
-  </si>
-  <si>
-    <t>Andrey</t>
-  </si>
-  <si>
-    <t>Andreevich</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Sergeev</t>
-  </si>
-  <si>
-    <t>Sergey</t>
-  </si>
-  <si>
-    <t>Sergeevich</t>
-  </si>
-  <si>
     <t>Psychology</t>
   </si>
   <si>
     <t>Uncredit</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Ivanova</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Ivanovna</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Krasnova</t>
@@ -319,71 +319,71 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -406,18 +406,18 @@
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>10</v>
@@ -429,7 +429,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -446,36 +446,36 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -492,79 +492,79 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>31</v>
@@ -629,82 +629,82 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -766,47 +766,47 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
@@ -818,30 +818,30 @@
         <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -864,53 +864,53 @@
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -927,36 +927,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1035,19 +1035,19 @@
         <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -1064,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>12</v>

--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResultsWithSorting.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResultsWithSorting.xlsx
@@ -95,8 +95,7 @@
     <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-Physics</t>
+    <t>Physics</t>
   </si>
   <si>
     <t>9</t>
